--- a/data/1M/Croatia 1M.xlsx
+++ b/data/1M/Croatia 1M.xlsx
@@ -26,8 +26,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -67,12 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -458,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +542,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="B2" t="n">
@@ -583,7 +586,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45351</v>
       </c>
       <c r="B3" t="n">
@@ -627,7 +630,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45382</v>
       </c>
       <c r="B4" t="n">
@@ -671,7 +674,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45412</v>
       </c>
       <c r="B5" t="n">
@@ -715,7 +718,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="B6" t="n">
@@ -759,17 +762,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45473</v>
       </c>
       <c r="B7" t="n">
-        <v>45216</v>
+        <v>50585</v>
       </c>
       <c r="C7" t="n">
-        <v>117952.75</v>
+        <v>134430.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -778,28 +781,72 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>23726.25</v>
+        <v>27309.75</v>
       </c>
       <c r="H7" t="n">
-        <v>-20591.75</v>
+        <v>-23737.5</v>
       </c>
       <c r="I7" t="n">
-        <v>177679.75</v>
+        <v>197157.75</v>
       </c>
       <c r="J7" t="n">
-        <v>201761.5</v>
+        <v>233966.5</v>
       </c>
       <c r="K7" t="n">
-        <v>19583</v>
+        <v>22016</v>
       </c>
       <c r="L7" t="n">
-        <v>20933.5</v>
+        <v>23646.75</v>
       </c>
       <c r="M7" t="n">
-        <v>4645</v>
+        <v>5117</v>
       </c>
       <c r="N7" t="n">
-        <v>98068.5</v>
+        <v>110610.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5607</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17323</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2840.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-4282.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21654</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22463.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2458</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3157</v>
+      </c>
+      <c r="M8" t="n">
+        <v>433</v>
+      </c>
+      <c r="N8" t="n">
+        <v>33250.25</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +967,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43465</v>
       </c>
       <c r="B2" t="n">
@@ -1049,7 +1096,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43496</v>
       </c>
       <c r="B2" t="n">
@@ -1093,7 +1140,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43524</v>
       </c>
       <c r="B3" t="n">
@@ -1137,7 +1184,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43555</v>
       </c>
       <c r="B4" t="n">
@@ -1181,7 +1228,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43585</v>
       </c>
       <c r="B5" t="n">
@@ -1225,7 +1272,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43616</v>
       </c>
       <c r="B6" t="n">
@@ -1269,7 +1316,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43646</v>
       </c>
       <c r="B7" t="n">
@@ -1313,7 +1360,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="B8" t="n">
@@ -1357,7 +1404,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43708</v>
       </c>
       <c r="B9" t="n">
@@ -1401,7 +1448,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="B10" t="n">
@@ -1445,7 +1492,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="B11" t="n">
@@ -1489,7 +1536,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43799</v>
       </c>
       <c r="B12" t="n">
@@ -1533,7 +1580,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43830</v>
       </c>
       <c r="B13" t="n">
@@ -1668,7 +1715,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43861</v>
       </c>
       <c r="B2" t="n">
@@ -1712,7 +1759,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43890</v>
       </c>
       <c r="B3" t="n">
@@ -1756,7 +1803,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43921</v>
       </c>
       <c r="B4" t="n">
@@ -1800,7 +1847,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43951</v>
       </c>
       <c r="B5" t="n">
@@ -1844,7 +1891,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43982</v>
       </c>
       <c r="B6" t="n">
@@ -1888,7 +1935,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44012</v>
       </c>
       <c r="B7" t="n">
@@ -1932,7 +1979,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44043</v>
       </c>
       <c r="B8" t="n">
@@ -1976,7 +2023,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44074</v>
       </c>
       <c r="B9" t="n">
@@ -2020,7 +2067,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44104</v>
       </c>
       <c r="B10" t="n">
@@ -2064,7 +2111,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44135</v>
       </c>
       <c r="B11" t="n">
@@ -2108,7 +2155,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44165</v>
       </c>
       <c r="B12" t="n">
@@ -2152,7 +2199,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44196</v>
       </c>
       <c r="B13" t="n">
@@ -2287,7 +2334,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44227</v>
       </c>
       <c r="B2" t="n">
@@ -2331,7 +2378,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44255</v>
       </c>
       <c r="B3" t="n">
@@ -2375,7 +2422,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44286</v>
       </c>
       <c r="B4" t="n">
@@ -2419,7 +2466,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44316</v>
       </c>
       <c r="B5" t="n">
@@ -2463,7 +2510,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="B6" t="n">
@@ -2507,7 +2554,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="B7" t="n">
@@ -2551,7 +2598,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44408</v>
       </c>
       <c r="B8" t="n">
@@ -2595,7 +2642,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="B9" t="n">
@@ -2639,7 +2686,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="B10" t="n">
@@ -2683,7 +2730,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44500</v>
       </c>
       <c r="B11" t="n">
@@ -2727,7 +2774,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44530</v>
       </c>
       <c r="B12" t="n">
@@ -2771,7 +2818,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="B13" t="n">
@@ -2906,7 +2953,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44592</v>
       </c>
       <c r="B2" t="n">
@@ -2950,7 +2997,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44620</v>
       </c>
       <c r="B3" t="n">
@@ -2994,7 +3041,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44651</v>
       </c>
       <c r="B4" t="n">
@@ -3038,7 +3085,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44681</v>
       </c>
       <c r="B5" t="n">
@@ -3082,7 +3129,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44712</v>
       </c>
       <c r="B6" t="n">
@@ -3126,7 +3173,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="B7" t="n">
@@ -3170,7 +3217,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44773</v>
       </c>
       <c r="B8" t="n">
@@ -3214,7 +3261,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="B9" t="n">
@@ -3258,7 +3305,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="B10" t="n">
@@ -3302,7 +3349,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44865</v>
       </c>
       <c r="B11" t="n">
@@ -3346,7 +3393,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B12" t="n">
@@ -3390,7 +3437,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44926</v>
       </c>
       <c r="B13" t="n">
@@ -3525,7 +3572,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="B2" t="n">
@@ -3569,7 +3616,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="B3" t="n">
@@ -3613,7 +3660,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="B4" t="n">
@@ -3657,7 +3704,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45046</v>
       </c>
       <c r="B5" t="n">
@@ -3701,7 +3748,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B6" t="n">
@@ -3745,7 +3792,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="B7" t="n">
@@ -3789,7 +3836,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="B8" t="n">
@@ -3833,7 +3880,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="B9" t="n">
@@ -3877,7 +3924,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45199</v>
       </c>
       <c r="B10" t="n">
@@ -3921,7 +3968,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45230</v>
       </c>
       <c r="B11" t="n">
@@ -3965,7 +4012,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="B12" t="n">
@@ -4009,7 +4056,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45291</v>
       </c>
       <c r="B13" t="n">
@@ -4290,9 +4337,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBDA16DF-990C-4830-8C92-AED74123C52B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D45F933-361A-46AF-AB95-4222D27176D4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F5CA245-330C-4440-B16A-D92AFD73DD49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1460D91-0C50-405F-897A-7E4D7E10B12C}"/>
 </file>